--- a/biology/Zoologie/Eurema_venusta/Eurema_venusta.xlsx
+++ b/biology/Zoologie/Eurema_venusta/Eurema_venusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema venusta est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema venusta a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836 sous le nom de Pyrisitia venusta[1].
-Sous-espèces
-Eurema venusta venusta présent au Venezuela, au Surinam et en Guyane française [1].
-Eurema venusta emanona, Dillon, 1947; présent aux Antilles, dont à la Martinique.
-Eurema venusta aequatorialis (C. &amp; R. Felder, 1861)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema venusta a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836 sous le nom de Pyrisitia venusta.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema venusta est un papillon de taille moyenne, de couleur jaune, avec sur le dessus les antérieures jaune d'or avec une large bordure marron et les postérieures jaune pâle.
-Le revers est de couleur crème à jaune.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurema venusta venusta présent au Venezuela, au Surinam et en Guyane française .
+Eurema venusta emanona, Dillon, 1947; présent aux Antilles, dont à la Martinique.
+Eurema venusta aequatorialis (C. &amp; R. Felder, 1861)</t>
         </is>
       </c>
     </row>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille  des Mimosa[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema venusta est un papillon de taille moyenne, de couleur jaune, avec sur le dessus les antérieures jaune d'or avec une large bordure marron et les postérieures jaune pâle.
+Le revers est de couleur crème à jaune.
 </t>
         </is>
       </c>
@@ -606,14 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille  des Mimosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_venusta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_venusta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema venusta  est présent en Colombie, au Venezuela, au Surinam et en Guyane française,  à Trinité-et-Tobago, aux Antilles (Guadeloupe, Martinique, Marie-Galante, les Saintes)et à la Jamaïque[1],[2]
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema venusta  est présent en Colombie, au Venezuela, au Surinam et en Guyane française,  à Trinité-et-Tobago, aux Antilles (Guadeloupe, Martinique, Marie-Galante, les Saintes)et à la Jamaïque,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_venusta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_venusta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
